--- a/output/fit_clients/fit_round_280.xlsx
+++ b/output/fit_clients/fit_round_280.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1565502077.421413</v>
+        <v>2427218547.57305</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1087034084148968</v>
+        <v>0.09455227521468812</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04149759504374954</v>
+        <v>0.04521108037238061</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>782750975.9658926</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1784003868.159103</v>
+        <v>2370875494.635322</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1654923714058557</v>
+        <v>0.1551912175696595</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04265055346093408</v>
+        <v>0.03614702725025794</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>892001940.6850944</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5059268080.454455</v>
+        <v>4458175385.679482</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1361549783599438</v>
+        <v>0.127971435011439</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03486575156490035</v>
+        <v>0.03256700148934151</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>101</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2529634129.440391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3222112996.298898</v>
+        <v>2724887135.340727</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09233414763598129</v>
+        <v>0.08778031954339233</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03213827697317692</v>
+        <v>0.03573856215162315</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>108</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1611056553.334464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1967173264.016774</v>
+        <v>2615448891.088331</v>
       </c>
       <c r="F6" t="n">
-        <v>0.113131213604861</v>
+        <v>0.1472888492829599</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04140020609304782</v>
+        <v>0.03918507741883909</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>51</v>
-      </c>
-      <c r="J6" t="n">
-        <v>983586665.1542511</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2218097786.936671</v>
+        <v>2621268775.492288</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08052238025739741</v>
+        <v>0.1008032966096311</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03181168670672897</v>
+        <v>0.03038595748859849</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>87</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1109048933.679451</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3909682277.207234</v>
+        <v>2523957498.461483</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1676524748547046</v>
+        <v>0.150671588998302</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02152704043352442</v>
+        <v>0.02328113158709912</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>89</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1954841289.112025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1917853062.079271</v>
+        <v>1470161701.158775</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1527169105310882</v>
+        <v>0.1462912682532278</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03684695347819009</v>
+        <v>0.0361865377527025</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>958926569.0505832</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4171126988.910276</v>
+        <v>3680451606.159996</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1493981153144864</v>
+        <v>0.1905329697124133</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04437762723012267</v>
+        <v>0.03564687313358017</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>118</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2085563529.591997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3615703761.497247</v>
+        <v>3941383038.019503</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1863034852385838</v>
+        <v>0.1568647856843029</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04727498021756781</v>
+        <v>0.04064327648399308</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>116</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1807851866.5965</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2028935661.790089</v>
+        <v>3177244933.224138</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1606521197872083</v>
+        <v>0.1582820023904891</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04605929136234521</v>
+        <v>0.04104170541168052</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>96</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1014467759.962117</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4751006726.568707</v>
+        <v>4006770160.936935</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09059677146128388</v>
+        <v>0.0951499863411249</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02557002877845464</v>
+        <v>0.02311110967347987</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>94</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2375503380.066543</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3218539054.372182</v>
+        <v>2789516783.617613</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1708908855247993</v>
+        <v>0.1520437936290695</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04232004824122007</v>
+        <v>0.02679977483397489</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>91</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1609269545.792644</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1789345699.879411</v>
+        <v>1589629269.529771</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1028275863207145</v>
+        <v>0.08433047249875573</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03293646002410154</v>
+        <v>0.03191791294584398</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>894673001.0354905</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2149668348.033369</v>
+        <v>1866218740.214349</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09481926228481773</v>
+        <v>0.1087895729399368</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03849609022767975</v>
+        <v>0.03361083265232</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>54</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1074834236.130988</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4247371649.651665</v>
+        <v>3665226196.485187</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1412104757510224</v>
+        <v>0.1143759883386472</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04362872606598599</v>
+        <v>0.03857797302942219</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>82</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2123685847.205845</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3554340603.436859</v>
+        <v>3876338078.22599</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1159897230163687</v>
+        <v>0.130692937473626</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0300617810487623</v>
+        <v>0.02323081589551636</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>92</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1777170291.842256</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1065489839.120507</v>
+        <v>1243072450.640594</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1606670853747212</v>
+        <v>0.1875651165830295</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0180233868876208</v>
+        <v>0.0209877915989079</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>532744964.7684754</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2615010234.891618</v>
+        <v>1928825917.746955</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1235665118303507</v>
+        <v>0.1489511361460649</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01955260439153787</v>
+        <v>0.02364844166626018</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>42</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1307505078.266791</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2606523005.623074</v>
+        <v>2316502586.024833</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09425189499358287</v>
+        <v>0.07785365253408676</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03375770279894055</v>
+        <v>0.04494743265078201</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>23</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1303261480.759072</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3892063970.582678</v>
+        <v>2564602411.872587</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1367148505543528</v>
+        <v>0.1301928066958598</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0402616889243046</v>
+        <v>0.04996976251473518</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>78</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1946031993.402747</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1228073434.437893</v>
+        <v>986350107.9742682</v>
       </c>
       <c r="F23" t="n">
-        <v>0.151462926751817</v>
+        <v>0.1574093726712181</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05013316183138793</v>
+        <v>0.03600983132892236</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>614036748.97515</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3955474806.743369</v>
+        <v>3706300605.510774</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1186723507432643</v>
+        <v>0.1309088066265842</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02297045096746218</v>
+        <v>0.03197620945282165</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>82</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1977737374.35262</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1010759488.483439</v>
+        <v>1386897293.152808</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09634127637708351</v>
+        <v>0.07770063949939017</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02447700570964029</v>
+        <v>0.02794042165790917</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>505379805.7466621</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1186518312.807507</v>
+        <v>1360309897.826337</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1150153310990392</v>
+        <v>0.1193194329765661</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03584401056056437</v>
+        <v>0.02961202120605543</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>593259174.1205456</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4674384653.251372</v>
+        <v>2898802281.332789</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1009211941410504</v>
+        <v>0.1112108222338941</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02590545255517492</v>
+        <v>0.02337425378532473</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>67</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2337192303.265897</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3345535143.917888</v>
+        <v>3891448295.976126</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1103228748358783</v>
+        <v>0.1242019051742552</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03169138943364334</v>
+        <v>0.03590142231619063</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>91</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1672767613.159984</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5858482714.42358</v>
+        <v>5096177797.443011</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1461204881406245</v>
+        <v>0.1011520137885056</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04556200550804842</v>
+        <v>0.03572752770136923</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>124</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2929241245.329608</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1681206225.371386</v>
+        <v>2399791684.494082</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1252338900815422</v>
+        <v>0.09631435217901432</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03140201847091653</v>
+        <v>0.02674134225816019</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>840603113.8700563</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1156528419.348168</v>
+        <v>942150117.549908</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07841524581092446</v>
+        <v>0.07659998334072028</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05252266183850078</v>
+        <v>0.04721537223317342</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>578264171.3745288</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1672742853.474627</v>
+        <v>1742780519.338632</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08976111924880772</v>
+        <v>0.09418606916468969</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03593786434180127</v>
+        <v>0.03207933022306678</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>836371530.8789518</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1956407600.575202</v>
+        <v>2670627632.712573</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1442812706965694</v>
+        <v>0.1873873258588458</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04501330422917284</v>
+        <v>0.04848269285827565</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>86</v>
-      </c>
-      <c r="J33" t="n">
-        <v>978203884.7689773</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1216429945.414321</v>
+        <v>1569032714.820328</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09641439417805397</v>
+        <v>0.1202699606658236</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02074209742026737</v>
+        <v>0.02154908834256947</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>608214975.0480579</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>933386476.5547572</v>
+        <v>1085565263.162785</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1138332596648682</v>
+        <v>0.09133750253790754</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04301562803314425</v>
+        <v>0.03303036943241119</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>466693271.4604218</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2358414669.898595</v>
+        <v>2556687657.141478</v>
       </c>
       <c r="F36" t="n">
-        <v>0.16993326787204</v>
+        <v>0.1729952732919325</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02312627775735327</v>
+        <v>0.01788277751552949</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>70</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1179207368.278286</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2882004185.901285</v>
+        <v>2551972841.512573</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1106733343975207</v>
+        <v>0.0952684822087928</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02994612148348416</v>
+        <v>0.03146868117931489</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>74</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1441002241.539867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2188678462.059136</v>
+        <v>1465185750.873973</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1078812260851249</v>
+        <v>0.1106975981395769</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0352263769567113</v>
+        <v>0.03405900296620547</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1094339183.004846</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1481211268.523075</v>
+        <v>2004444881.708837</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1785861503728271</v>
+        <v>0.1515987365844816</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02010220932847632</v>
+        <v>0.02616299401331531</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>740605707.543813</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1643414098.041495</v>
+        <v>1501526073.487123</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1448945633861026</v>
+        <v>0.1237584261483372</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03706041955869815</v>
+        <v>0.04607905365353235</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>821706979.2974722</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2770318373.380571</v>
+        <v>2701829521.491065</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1261040341398356</v>
+        <v>0.1152252847632081</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04562152019306062</v>
+        <v>0.04351891369428106</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>68</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1385159185.469566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2681424382.972376</v>
+        <v>4177080939.08213</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1273475617440755</v>
+        <v>0.1147339413664592</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03303930435279061</v>
+        <v>0.04534248522069913</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>92</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1340712130.017159</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3001192485.339221</v>
+        <v>2689518398.740397</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1611525279226234</v>
+        <v>0.1572611284546334</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01648360934881345</v>
+        <v>0.01693718545913684</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>102</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1500596240.939969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1860463745.652236</v>
+        <v>2052432966.828159</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07521625711429339</v>
+        <v>0.06978241801716314</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03654563027005919</v>
+        <v>0.03301292525520996</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>930231951.3134108</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2070569202.393268</v>
+        <v>2175998520.419408</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1631527158101439</v>
+        <v>0.1666520425667864</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03799883341623557</v>
+        <v>0.04969792835341297</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1035284599.150828</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3599637023.630579</v>
+        <v>3643555107.443713</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1653037671655085</v>
+        <v>0.1132171488156295</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05955840345501562</v>
+        <v>0.06114861926813581</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>100</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1799818458.461063</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4051441080.356619</v>
+        <v>5107660267.782484</v>
       </c>
       <c r="F47" t="n">
-        <v>0.150299481484829</v>
+        <v>0.1700629663210372</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03712269890780352</v>
+        <v>0.04988901625133976</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>75</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2025720542.264077</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3021010388.062181</v>
+        <v>3986262746.739646</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1104770143603206</v>
+        <v>0.1051130798011327</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03651012245839937</v>
+        <v>0.02533005929717185</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>91</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1510505285.283178</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1706459599.133519</v>
+        <v>1703725907.160758</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1551328068721749</v>
+        <v>0.1898634814891553</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04287884636453101</v>
+        <v>0.04298111624737438</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>853229799.4816374</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3524988646.697894</v>
+        <v>3530902295.95764</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1488686984694531</v>
+        <v>0.1620691084558743</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03529162675789314</v>
+        <v>0.05177966250509563</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>96</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1762494345.815588</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1059135530.576786</v>
+        <v>1424376973.357739</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1826610748999406</v>
+        <v>0.1652785978896747</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05304429373535491</v>
+        <v>0.04042794619185092</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>529567839.6738101</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5290568980.10743</v>
+        <v>4293352079.49872</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08524680732055454</v>
+        <v>0.1099868892350577</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06036599576463049</v>
+        <v>0.04844611829309144</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>116</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2645284470.572852</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2673252672.803006</v>
+        <v>3141247230.433673</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1522474729658021</v>
+        <v>0.1857122776214137</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03253633380147743</v>
+        <v>0.03301567793063522</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>81</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1336626391.396805</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4872223688.788852</v>
+        <v>4289169357.166383</v>
       </c>
       <c r="F54" t="n">
-        <v>0.124330291189868</v>
+        <v>0.1376115376028354</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05219938062418649</v>
+        <v>0.03655072046816495</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>91</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2436111976.973588</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4868861963.211112</v>
+        <v>3039941192.539449</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1677154946754207</v>
+        <v>0.1374799478464993</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02183677857377213</v>
+        <v>0.02820442014380006</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>73</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2434430994.838995</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1394948025.6851</v>
+        <v>1620957907.995414</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1127399811911156</v>
+        <v>0.1562228159930299</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04328883109973571</v>
+        <v>0.05795345770845513</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>697474070.6753446</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3192294115.664855</v>
+        <v>3373256243.730642</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1595870829030804</v>
+        <v>0.1313282424829275</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02629191455354942</v>
+        <v>0.01898499290557148</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>89</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1596147078.378595</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1316930749.438254</v>
+        <v>1689379872.511458</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1691460324149211</v>
+        <v>0.1379713880079053</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03520496941756896</v>
+        <v>0.02681397756866319</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>658465422.573127</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3597991243.311481</v>
+        <v>5048057142.920733</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1072522964875604</v>
+        <v>0.1090876814354618</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03978851601456256</v>
+        <v>0.03755215358062493</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>78</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1798995616.991573</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2503117784.367352</v>
+        <v>3146736413.964241</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1768195307241314</v>
+        <v>0.181908297131859</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02979751736864072</v>
+        <v>0.02808508980213506</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>89</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1251558910.410858</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2953830496.136685</v>
+        <v>2339917566.66174</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1155948271463438</v>
+        <v>0.157447212485583</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02162413653838124</v>
+        <v>0.03277158848554617</v>
       </c>
       <c r="H61" t="b">
         <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>96</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1476915232.891642</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1383575285.425574</v>
+        <v>1292087340.438165</v>
       </c>
       <c r="F62" t="n">
-        <v>0.136787052920125</v>
+        <v>0.1651878370709712</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04461525612434449</v>
+        <v>0.03846150359636423</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>691787608.2708913</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4751459451.698355</v>
+        <v>5539023687.994217</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1025521527242865</v>
+        <v>0.09854590382291058</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04275500705201642</v>
+        <v>0.04611748845786894</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>82</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2375729754.690591</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3632454694.274209</v>
+        <v>5407465677.508552</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1163483411990802</v>
+        <v>0.1520708088758858</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03186084401986121</v>
+        <v>0.02629226857666906</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>87</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1816227357.147295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5914218855.815616</v>
+        <v>4469396000.283176</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1621072573701676</v>
+        <v>0.152254800843575</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02697388443821743</v>
+        <v>0.03199909589779303</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>101</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2957109332.263244</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4406484036.360098</v>
+        <v>4249401841.937173</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1077268998396399</v>
+        <v>0.1026882073620031</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04231204739549591</v>
+        <v>0.05007238754151928</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>82</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2203242013.522248</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3333281964.805665</v>
+        <v>3156317178.376128</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07793695117351633</v>
+        <v>0.08909639701002896</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05119646374974981</v>
+        <v>0.05012305929381203</v>
       </c>
       <c r="H67" t="b">
         <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>88</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1666640972.45238</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4575595965.558641</v>
+        <v>5023790987.400886</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1435200619519361</v>
+        <v>0.1538171855891357</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04343657613429776</v>
+        <v>0.04684589598611069</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>91</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2287798013.454736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2312802909.99025</v>
+        <v>2349642985.440807</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1161230129503864</v>
+        <v>0.116975745218569</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04659648754583966</v>
+        <v>0.0370738715509532</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1156401500.380786</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2586806291.140573</v>
+        <v>2582560222.394478</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07455623845115258</v>
+        <v>0.08327543954403649</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03358266690334406</v>
+        <v>0.04867739594760746</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>80</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1293403095.645905</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4115139027.76059</v>
+        <v>5351222664.461868</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1343983037226207</v>
+        <v>0.1828725782686452</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0303705790372285</v>
+        <v>0.02351569008505356</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>103</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2057569553.559064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1649756317.997779</v>
+        <v>1537094689.988533</v>
       </c>
       <c r="F72" t="n">
-        <v>0.077898241308047</v>
+        <v>0.07236511745837348</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03485965083606694</v>
+        <v>0.04920096991838856</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>824878161.8279133</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3410804361.199078</v>
+        <v>2363264401.840434</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08441720788595877</v>
+        <v>0.09058907047821277</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04278428194898233</v>
+        <v>0.05174735455164062</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>106</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1705402138.964944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2741268701.484743</v>
+        <v>3721770842.141919</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1440067437329286</v>
+        <v>0.1385387137514733</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03031773321257655</v>
+        <v>0.0215114957302059</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>95</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1370634438.51795</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1613076527.288162</v>
+        <v>2132425411.169609</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1362326778424258</v>
+        <v>0.1013839215973073</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02418756506910552</v>
+        <v>0.02340147418370205</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>806538264.0687168</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4970494390.145193</v>
+        <v>5366311600.459396</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1026022700436771</v>
+        <v>0.1129610960208846</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03002004215829231</v>
+        <v>0.02738313101644908</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>63</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2485247220.496255</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2061168278.298841</v>
+        <v>1617891116.498234</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1762903050985994</v>
+        <v>0.1617382139530256</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02524214220072054</v>
+        <v>0.02570300689565923</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1030584209.67863</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4222902913.345481</v>
+        <v>2929854818.124504</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1040826860007698</v>
+        <v>0.08828495164445448</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04106000088817763</v>
+        <v>0.04343717045313392</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>97</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2111451406.424089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1510181926.967252</v>
+        <v>1601764309.595074</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1247575224110057</v>
+        <v>0.1557099836641767</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0259872015601196</v>
+        <v>0.02779892599501622</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>755090999.4807029</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3539723099.97616</v>
+        <v>4825172982.380726</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09540836854488802</v>
+        <v>0.08885728993029135</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03410328105338491</v>
+        <v>0.03144005821164766</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>59</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1769861526.576987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4201958560.679931</v>
+        <v>4716897869.932424</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1208589160272026</v>
+        <v>0.1168576293918147</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02743267464354123</v>
+        <v>0.02742320044313976</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>65</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2100979251.054636</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5399738343.098604</v>
+        <v>4786847315.710423</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1592326205764641</v>
+        <v>0.1477826921600558</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02826326143103376</v>
+        <v>0.02849614583198719</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>99</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2699869133.162089</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1764907267.382342</v>
+        <v>1539383202.696192</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1208635069131628</v>
+        <v>0.1512300030552837</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0395517942132784</v>
+        <v>0.04282334463253686</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>882453589.7037786</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1722837264.68796</v>
+        <v>2006805809.421792</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1208230006869</v>
+        <v>0.1162497676226574</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03334601533117515</v>
+        <v>0.04581340977565494</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>861418677.9430506</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3461239313.225379</v>
+        <v>3228550944.922307</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1693582364949691</v>
+        <v>0.1286997889010836</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04323349157359624</v>
+        <v>0.0462685833111674</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>105</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1730619767.66761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2657295115.225567</v>
+        <v>1719059602.722519</v>
       </c>
       <c r="F86" t="n">
-        <v>0.126963140360855</v>
+        <v>0.1176981416809803</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02490749354313028</v>
+        <v>0.01932239697514127</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>35</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1328647676.638601</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1153579621.298494</v>
+        <v>1084927265.850604</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1641143014826361</v>
+        <v>0.1338195397928792</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0437190406340402</v>
+        <v>0.03368600632464589</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>576789854.3325614</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2771071546.15204</v>
+        <v>3021425789.1232</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1401670909168632</v>
+        <v>0.1603266554538061</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03497767342638679</v>
+        <v>0.0249197342080203</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>111</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1385535780.90644</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2974185074.200763</v>
+        <v>2468530887.683601</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1139231034741031</v>
+        <v>0.1316105456318016</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03872939946935584</v>
+        <v>0.02917179018167873</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>96</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1487092577.094444</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1673423059.243939</v>
+        <v>1945683859.327546</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1175954740099398</v>
+        <v>0.1294085007423133</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05220463669483177</v>
+        <v>0.03663330087686688</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>836711540.0912277</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1951306647.082608</v>
+        <v>1707294228.508018</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1951723014642176</v>
+        <v>0.1361420446433036</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04633930747622649</v>
+        <v>0.04048600106513549</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>975653302.3132379</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1965221244.099663</v>
+        <v>2748567275.767399</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1051356819965134</v>
+        <v>0.08449432141944622</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03812193338766502</v>
+        <v>0.04122538588214979</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>71</v>
-      </c>
-      <c r="J92" t="n">
-        <v>982610565.6391206</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3761417884.060463</v>
+        <v>4020408021.779941</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1229953335744182</v>
+        <v>0.1203762902025928</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03501431059301372</v>
+        <v>0.04726346878643341</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>85</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1880708958.089182</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2467869199.503258</v>
+        <v>1937861064.297448</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1226652871565762</v>
+        <v>0.1310567706039138</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03091791924962127</v>
+        <v>0.0411358781774958</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1233934658.989125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3114504714.889594</v>
+        <v>2537785669.065472</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1010221773817234</v>
+        <v>0.1099916931013755</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0526605990497659</v>
+        <v>0.03632691674667027</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>69</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1557252348.830797</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1868899049.228087</v>
+        <v>1800667643.97378</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09684677617124299</v>
+        <v>0.1411135216452937</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03182468984969934</v>
+        <v>0.03462910883146067</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>934449525.5798235</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4855358443.684176</v>
+        <v>5062932907.402219</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1464334373119181</v>
+        <v>0.1532891479490869</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01921834739970137</v>
+        <v>0.0250614182969099</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>91</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2427679347.006054</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3049608673.739007</v>
+        <v>3779134232.665461</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1133912079913207</v>
+        <v>0.1179753664958731</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03114796007032584</v>
+        <v>0.02506820109896021</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>74</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1524804324.910205</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2744378351.632221</v>
+        <v>2365728205.693636</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1149111684039672</v>
+        <v>0.1085243736901093</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03164760903013925</v>
+        <v>0.03300783471887728</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>88</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1372189143.291682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3996508173.396855</v>
+        <v>4085571395.686667</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1780227260650325</v>
+        <v>0.1446068623426205</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01761814689708597</v>
+        <v>0.02067206430052604</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>85</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1998254157.092525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2823975406.794011</v>
+        <v>3093200539.169483</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1345890688244596</v>
+        <v>0.1540270337628449</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05663179485839639</v>
+        <v>0.04139111957873211</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>111</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1411987769.164743</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_280.xlsx
+++ b/output/fit_clients/fit_round_280.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2427218547.57305</v>
+        <v>2487906738.650099</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09455227521468812</v>
+        <v>0.08769685226791456</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04521108037238061</v>
+        <v>0.03938547642847832</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2370875494.635322</v>
+        <v>2283134404.687806</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1551912175696595</v>
+        <v>0.173725841216559</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03614702725025794</v>
+        <v>0.04345217519684323</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4458175385.679482</v>
+        <v>5052360758.673941</v>
       </c>
       <c r="F4" t="n">
-        <v>0.127971435011439</v>
+        <v>0.1367611059817062</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03256700148934151</v>
+        <v>0.03328984454712165</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2724887135.340727</v>
+        <v>3770094507.76572</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08778031954339233</v>
+        <v>0.08851246583022347</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03573856215162315</v>
+        <v>0.03222334048049647</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2615448891.088331</v>
+        <v>2806407699.534601</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1472888492829599</v>
+        <v>0.1259016232638082</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03918507741883909</v>
+        <v>0.04599302411293049</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2621268775.492288</v>
+        <v>1940892606.217777</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1008032966096311</v>
+        <v>0.09947127781979585</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03038595748859849</v>
+        <v>0.03208197545278342</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2523957498.461483</v>
+        <v>3966067440.783531</v>
       </c>
       <c r="F8" t="n">
-        <v>0.150671588998302</v>
+        <v>0.2114692127580984</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02328113158709912</v>
+        <v>0.0271827955120135</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1470161701.158775</v>
+        <v>1938948173.656697</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1462912682532278</v>
+        <v>0.1410006117269255</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0361865377527025</v>
+        <v>0.0239250965827235</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3680451606.159996</v>
+        <v>5384998745.28473</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1905329697124133</v>
+        <v>0.1378271923157186</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03564687313358017</v>
+        <v>0.05431898183000709</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3941383038.019503</v>
+        <v>3023828317.929006</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1568647856843029</v>
+        <v>0.1686463783803127</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04064327648399308</v>
+        <v>0.03103822740296317</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3177244933.224138</v>
+        <v>2894842955.191703</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1582820023904891</v>
+        <v>0.1778982231355817</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04104170541168052</v>
+        <v>0.04045181602593184</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4006770160.936935</v>
+        <v>4061477860.828401</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0951499863411249</v>
+        <v>0.07310246754637259</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02311110967347987</v>
+        <v>0.02829948471577358</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2789516783.617613</v>
+        <v>3303273212.755759</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1520437936290695</v>
+        <v>0.1258796671297449</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02679977483397489</v>
+        <v>0.04083670189449114</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1589629269.529771</v>
+        <v>1227313997.618126</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08433047249875573</v>
+        <v>0.08953751960380879</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03191791294584398</v>
+        <v>0.04324308651435674</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1866218740.214349</v>
+        <v>2852128888.422081</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1087895729399368</v>
+        <v>0.07727201615102713</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03361083265232</v>
+        <v>0.03460767363915927</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3665226196.485187</v>
+        <v>3414972443.972558</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1143759883386472</v>
+        <v>0.1129150993637204</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03857797302942219</v>
+        <v>0.04776831183732996</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3876338078.22599</v>
+        <v>3902231583.505455</v>
       </c>
       <c r="F18" t="n">
-        <v>0.130692937473626</v>
+        <v>0.1640814404787845</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02323081589551636</v>
+        <v>0.02737225914909207</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1243072450.640594</v>
+        <v>985230126.0611808</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1875651165830295</v>
+        <v>0.1908213932467221</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0209877915989079</v>
+        <v>0.0212565775927639</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1928825917.746955</v>
+        <v>2266637360.71666</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1489511361460649</v>
+        <v>0.1163914900840909</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02364844166626018</v>
+        <v>0.02097895333725653</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2316502586.024833</v>
+        <v>2064456812.340029</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07785365253408676</v>
+        <v>0.08370610895917559</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04494743265078201</v>
+        <v>0.04084604370838951</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2564602411.872587</v>
+        <v>3573394297.038011</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1301928066958598</v>
+        <v>0.1167513029991378</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04996976251473518</v>
+        <v>0.03577024873767008</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>986350107.9742682</v>
+        <v>1281993216.492879</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1574093726712181</v>
+        <v>0.1736524325950584</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03600983132892236</v>
+        <v>0.05011406062103093</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3706300605.510774</v>
+        <v>3402032393.375492</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1309088066265842</v>
+        <v>0.1241079527517699</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03197620945282165</v>
+        <v>0.03440220009926231</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1386897293.152808</v>
+        <v>1115717305.922492</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07770063949939017</v>
+        <v>0.0993695296531471</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02794042165790917</v>
+        <v>0.02235464650005289</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1360309897.826337</v>
+        <v>1021986788.2379</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1193194329765661</v>
+        <v>0.1101167324207528</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02961202120605543</v>
+        <v>0.0294152130039669</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2898802281.332789</v>
+        <v>2863317352.98657</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1112108222338941</v>
+        <v>0.1419070532503047</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02337425378532473</v>
+        <v>0.02693424474106047</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3891448295.976126</v>
+        <v>3011191289.204609</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1242019051742552</v>
+        <v>0.09207914639453978</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03590142231619063</v>
+        <v>0.04096381266739012</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5096177797.443011</v>
+        <v>5784756363.468902</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1011520137885056</v>
+        <v>0.1379549844559743</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03572752770136923</v>
+        <v>0.04082359136459337</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2399791684.494082</v>
+        <v>1951614279.017747</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09631435217901432</v>
+        <v>0.1241481478736521</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02674134225816019</v>
+        <v>0.02666119075858244</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>942150117.549908</v>
+        <v>1398195183.2605</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07659998334072028</v>
+        <v>0.07841105356226671</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04721537223317342</v>
+        <v>0.03881427435227379</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1742780519.338632</v>
+        <v>1207715559.757993</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09418606916468969</v>
+        <v>0.07303025251931936</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03207933022306678</v>
+        <v>0.03573496585976006</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2670627632.712573</v>
+        <v>2196389348.37569</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1873873258588458</v>
+        <v>0.1748307026974001</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04848269285827565</v>
+        <v>0.04408690316282458</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1569032714.820328</v>
+        <v>1140128418.802936</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1202699606658236</v>
+        <v>0.09015980718993642</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02154908834256947</v>
+        <v>0.02556995969252354</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1085565263.162785</v>
+        <v>892822635.40295</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09133750253790754</v>
+        <v>0.1170647462883957</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03303036943241119</v>
+        <v>0.0390307316938009</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2556687657.141478</v>
+        <v>2731585341.781521</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1729952732919325</v>
+        <v>0.1768044234234182</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01788277751552949</v>
+        <v>0.0195319654822304</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2551972841.512573</v>
+        <v>2005146118.308348</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0952684822087928</v>
+        <v>0.1105855140435059</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03146868117931489</v>
+        <v>0.02787918000760582</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1465185750.873973</v>
+        <v>1873217791.604714</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1106975981395769</v>
+        <v>0.08549789014283463</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03405900296620547</v>
+        <v>0.02710841203291501</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2004444881.708837</v>
+        <v>1481367364.919607</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1515987365844816</v>
+        <v>0.1565934173502243</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02616299401331531</v>
+        <v>0.03302110459232088</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1501526073.487123</v>
+        <v>1586556158.581861</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1237584261483372</v>
+        <v>0.1004420318987429</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04607905365353235</v>
+        <v>0.05350144959481407</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2701829521.491065</v>
+        <v>2856582815.416121</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1152252847632081</v>
+        <v>0.1103889617078325</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04351891369428106</v>
+        <v>0.04561277489666793</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4177080939.08213</v>
+        <v>3111942185.484653</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1147339413664592</v>
+        <v>0.1155266583175822</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04534248522069913</v>
+        <v>0.0406907254253145</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2689518398.740397</v>
+        <v>2420730241.980723</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1572611284546334</v>
+        <v>0.1745999752255657</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01693718545913684</v>
+        <v>0.01616817846775411</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2052432966.828159</v>
+        <v>1839100115.362503</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06978241801716314</v>
+        <v>0.08312615241888045</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03301292525520996</v>
+        <v>0.03599740366945654</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2175998520.419408</v>
+        <v>1654395827.581497</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1666520425667864</v>
+        <v>0.1355790655366547</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04969792835341297</v>
+        <v>0.03688338439635396</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3643555107.443713</v>
+        <v>5384069531.082845</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1132171488156295</v>
+        <v>0.1457074672709905</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06114861926813581</v>
+        <v>0.05396780033264832</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5107660267.782484</v>
+        <v>4586398830.918262</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1700629663210372</v>
+        <v>0.1976166625888102</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04988901625133976</v>
+        <v>0.05387665296696853</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3986262746.739646</v>
+        <v>3861674503.226218</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1051130798011327</v>
+        <v>0.1020457780373079</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02533005929717185</v>
+        <v>0.02769768412297173</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1703725907.160758</v>
+        <v>1900939948.279948</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1898634814891553</v>
+        <v>0.1360029261729331</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04298111624737438</v>
+        <v>0.04131835022631706</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3530902295.95764</v>
+        <v>2777998719.442141</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1620691084558743</v>
+        <v>0.1200810022433991</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05177966250509563</v>
+        <v>0.05353520730769609</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1424376973.357739</v>
+        <v>1294529723.165679</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1652785978896747</v>
+        <v>0.191011384967402</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04042794619185092</v>
+        <v>0.03967969270113561</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4293352079.49872</v>
+        <v>3901989925.847535</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1099868892350577</v>
+        <v>0.1147820955624765</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04844611829309144</v>
+        <v>0.05294246856557835</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3141247230.433673</v>
+        <v>2523272120.632388</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1857122776214137</v>
+        <v>0.1345686567326835</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03301567793063522</v>
+        <v>0.03158677287679279</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4289169357.166383</v>
+        <v>4563411867.807818</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1376115376028354</v>
+        <v>0.1283037371132829</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03655072046816495</v>
+        <v>0.03413601694175433</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3039941192.539449</v>
+        <v>4871412332.302581</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1374799478464993</v>
+        <v>0.2158209635837062</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02820442014380006</v>
+        <v>0.03095398663035532</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1620957907.995414</v>
+        <v>1757547878.607393</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1562228159930299</v>
+        <v>0.1048000255190189</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05795345770845513</v>
+        <v>0.03772093745343987</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3373256243.730642</v>
+        <v>3598934254.708548</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1313282424829275</v>
+        <v>0.1231740786805427</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01898499290557148</v>
+        <v>0.01955068984863686</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1689379872.511458</v>
+        <v>1228905813.590383</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1379713880079053</v>
+        <v>0.1339729556425318</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02681397756866319</v>
+        <v>0.03044924964184932</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5048057142.920733</v>
+        <v>3456095385.895216</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1090876814354618</v>
+        <v>0.09986961626230877</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03755215358062493</v>
+        <v>0.03734688305425838</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3146736413.964241</v>
+        <v>2606121359.872626</v>
       </c>
       <c r="F60" t="n">
-        <v>0.181908297131859</v>
+        <v>0.1702342370908224</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02808508980213506</v>
+        <v>0.02317735473576424</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2339917566.66174</v>
+        <v>2134284684.167828</v>
       </c>
       <c r="F61" t="n">
-        <v>0.157447212485583</v>
+        <v>0.1221444414900026</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03277158848554617</v>
+        <v>0.02086627704172325</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1292087340.438165</v>
+        <v>1324358680.446481</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1651878370709712</v>
+        <v>0.1496847451121971</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03846150359636423</v>
+        <v>0.03087543102005174</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5539023687.994217</v>
+        <v>3696501881.282516</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09854590382291058</v>
+        <v>0.08785511809565084</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04611748845786894</v>
+        <v>0.04139464361261164</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5407465677.508552</v>
+        <v>5210672677.687243</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1520708088758858</v>
+        <v>0.1411104467553328</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02629226857666906</v>
+        <v>0.03313522757544579</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4469396000.283176</v>
+        <v>4220994889.665363</v>
       </c>
       <c r="F65" t="n">
-        <v>0.152254800843575</v>
+        <v>0.1055208785248626</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03199909589779303</v>
+        <v>0.02840536356558152</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4249401841.937173</v>
+        <v>4831022894.969598</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1026882073620031</v>
+        <v>0.1358255124589338</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05007238754151928</v>
+        <v>0.04335675351352958</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3156317178.376128</v>
+        <v>2504373621.470031</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08909639701002896</v>
+        <v>0.08198362183390719</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05012305929381203</v>
+        <v>0.04844716033305835</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5023790987.400886</v>
+        <v>3953649481.326437</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1538171855891357</v>
+        <v>0.1002700975125394</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04684589598611069</v>
+        <v>0.03580360851155692</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2349642985.440807</v>
+        <v>1927088645.349199</v>
       </c>
       <c r="F69" t="n">
-        <v>0.116975745218569</v>
+        <v>0.174967356350539</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0370738715509532</v>
+        <v>0.04887732618790694</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2582560222.394478</v>
+        <v>2827003556.897555</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08327543954403649</v>
+        <v>0.1008435754695105</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04867739594760746</v>
+        <v>0.03946802465513671</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5351222664.461868</v>
+        <v>4239936620.23735</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1828725782686452</v>
+        <v>0.1825604828785233</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02351569008505356</v>
+        <v>0.02435989505359818</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1537094689.988533</v>
+        <v>1554026031.923792</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07236511745837348</v>
+        <v>0.09290141167193658</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04920096991838856</v>
+        <v>0.04570164481341764</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2363264401.840434</v>
+        <v>2346089427.580666</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09058907047821277</v>
+        <v>0.1086965060037138</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05174735455164062</v>
+        <v>0.04487808275965714</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3721770842.141919</v>
+        <v>3816974759.842996</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1385387137514733</v>
+        <v>0.1349810749721622</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0215114957302059</v>
+        <v>0.0245276600749065</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2132425411.169609</v>
+        <v>1545975989.648577</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1013839215973073</v>
+        <v>0.1301795285103665</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02340147418370205</v>
+        <v>0.02430508464353922</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5366311600.459396</v>
+        <v>3901497214.914752</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1129610960208846</v>
+        <v>0.1130771238256317</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02738313101644908</v>
+        <v>0.02131329947441296</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1617891116.498234</v>
+        <v>1738818663.52058</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1617382139530256</v>
+        <v>0.1306029676786341</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02570300689565923</v>
+        <v>0.02429838010075649</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2929854818.124504</v>
+        <v>3468440942.980607</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08828495164445448</v>
+        <v>0.09003592486568585</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04343717045313392</v>
+        <v>0.04289331561517412</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1601764309.595074</v>
+        <v>1640478132.580939</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1557099836641767</v>
+        <v>0.1196044838313024</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02779892599501622</v>
+        <v>0.02895259869566033</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4825172982.380726</v>
+        <v>4064428583.462951</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08885728993029135</v>
+        <v>0.0775815210186952</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03144005821164766</v>
+        <v>0.02928006045409367</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4716897869.932424</v>
+        <v>3348432923.171765</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1168576293918147</v>
+        <v>0.1169042048069074</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02742320044313976</v>
+        <v>0.02435427880717033</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4786847315.710423</v>
+        <v>4432163940.609169</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1477826921600558</v>
+        <v>0.145529794037011</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02849614583198719</v>
+        <v>0.02553131624220349</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1539383202.696192</v>
+        <v>1579052278.613125</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1512300030552837</v>
+        <v>0.1116309860992042</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04282334463253686</v>
+        <v>0.028784740827085</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2006805809.421792</v>
+        <v>1608381303.55016</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1162497676226574</v>
+        <v>0.09132349366986102</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04581340977565494</v>
+        <v>0.03658597747755785</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3228550944.922307</v>
+        <v>2321748838.977757</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1286997889010836</v>
+        <v>0.1652060311447296</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0462685833111674</v>
+        <v>0.03542633243723238</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1719059602.722519</v>
+        <v>2797447648.032125</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1176981416809803</v>
+        <v>0.1441094351824157</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01932239697514127</v>
+        <v>0.01911436931321657</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1084927265.850604</v>
+        <v>1469196205.577641</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1338195397928792</v>
+        <v>0.1534910237154822</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03368600632464589</v>
+        <v>0.03640408791223938</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3021425789.1232</v>
+        <v>3487495297.629514</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1603266554538061</v>
+        <v>0.165522580918503</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0249197342080203</v>
+        <v>0.0393814676498614</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2468530887.683601</v>
+        <v>2735498258.688255</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1316105456318016</v>
+        <v>0.1443172443177435</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02917179018167873</v>
+        <v>0.0400407354912144</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1945683859.327546</v>
+        <v>1805632861.020795</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1294085007423133</v>
+        <v>0.09890806456724473</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03663330087686688</v>
+        <v>0.03593920466396899</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1707294228.508018</v>
+        <v>1774169702.194198</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1361420446433036</v>
+        <v>0.1911613379840556</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04048600106513549</v>
+        <v>0.04586858401030407</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2748567275.767399</v>
+        <v>2142953984.186419</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08449432141944622</v>
+        <v>0.080458801519005</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04122538588214979</v>
+        <v>0.02915207174607387</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,13 +3034,13 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4020408021.779941</v>
+        <v>4763118800.989153</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1203762902025928</v>
+        <v>0.111365458875389</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04726346878643341</v>
+        <v>0.03990029158362089</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1937861064.297448</v>
+        <v>2467924464.536747</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1310567706039138</v>
+        <v>0.1581990280363656</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0411358781774958</v>
+        <v>0.03887609619705005</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2537785669.065472</v>
+        <v>2448706867.751282</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1099916931013755</v>
+        <v>0.09135453746392157</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03632691674667027</v>
+        <v>0.0325474595640821</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1800667643.97378</v>
+        <v>1471269713.759975</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1411135216452937</v>
+        <v>0.09040105705657114</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03462910883146067</v>
+        <v>0.04076766919488219</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5062932907.402219</v>
+        <v>4473889856.545071</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1532891479490869</v>
+        <v>0.1558484456466674</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0250614182969099</v>
+        <v>0.02636685107129625</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3779134232.665461</v>
+        <v>3803922474.358731</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1179753664958731</v>
+        <v>0.1300763661434857</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02506820109896021</v>
+        <v>0.02760526352529293</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2365728205.693636</v>
+        <v>2116480246.030359</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1085243736901093</v>
+        <v>0.1194610577980656</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03300783471887728</v>
+        <v>0.03161797312768821</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4085571395.686667</v>
+        <v>3509363761.060905</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1446068623426205</v>
+        <v>0.1622568191196478</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02067206430052604</v>
+        <v>0.0257008580515479</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3093200539.169483</v>
+        <v>2178338302.063837</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1540270337628449</v>
+        <v>0.1754094049179641</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04139111957873211</v>
+        <v>0.0388773909099053</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_280.xlsx
+++ b/output/fit_clients/fit_round_280.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2487906738.650099</v>
+        <v>2167239522.593778</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08769685226791456</v>
+        <v>0.08625651227957058</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03938547642847832</v>
+        <v>0.04388834615115422</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2283134404.687806</v>
+        <v>1703472435.558038</v>
       </c>
       <c r="F3" t="n">
-        <v>0.173725841216559</v>
+        <v>0.1596259899348063</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04345217519684323</v>
+        <v>0.03833114550713324</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5052360758.673941</v>
+        <v>5139958178.94598</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1367611059817062</v>
+        <v>0.1320942736286272</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03328984454712165</v>
+        <v>0.03386335930727157</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>149</v>
+      </c>
+      <c r="J4" t="n">
+        <v>280</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,16 +606,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3770094507.76572</v>
+        <v>3278088342.531182</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08851246583022347</v>
+        <v>0.1098852171430217</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03222334048049647</v>
+        <v>0.03469813013550758</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>113</v>
+      </c>
+      <c r="J5" t="n">
+        <v>279</v>
+      </c>
+      <c r="K5" t="n">
+        <v>68.67079190357717</v>
       </c>
     </row>
     <row r="6">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2806407699.534601</v>
+        <v>2334216046.88405</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1259016232638082</v>
+        <v>0.1141956001487248</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04599302411293049</v>
+        <v>0.04696790434620308</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1940892606.217777</v>
+        <v>2914094876.883315</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09947127781979585</v>
+        <v>0.07578373858479073</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03208197545278342</v>
+        <v>0.04232407958289096</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3966067440.783531</v>
+        <v>2549373343.601527</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2114692127580984</v>
+        <v>0.2204116357124671</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0271827955120135</v>
+        <v>0.02941345993068545</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>74</v>
+      </c>
+      <c r="J8" t="n">
+        <v>279</v>
+      </c>
+      <c r="K8" t="n">
+        <v>38.10600578245963</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1938948173.656697</v>
+        <v>2242003315.900521</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1410006117269255</v>
+        <v>0.1581508291444591</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0239250965827235</v>
+        <v>0.02625949221338189</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5384998745.28473</v>
+        <v>4591366992.557055</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1378271923157186</v>
+        <v>0.1929991701989517</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05431898183000709</v>
+        <v>0.03405735789499621</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>251</v>
+      </c>
+      <c r="J10" t="n">
+        <v>280</v>
+      </c>
+      <c r="K10" t="n">
+        <v>91.32818942563874</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3023828317.929006</v>
+        <v>2674194213.852204</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1686463783803127</v>
+        <v>0.1629432945686897</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03103822740296317</v>
+        <v>0.0358792000203093</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>112</v>
+      </c>
+      <c r="J11" t="n">
+        <v>277</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +857,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2894842955.191703</v>
+        <v>3211603114.572777</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1778982231355817</v>
+        <v>0.1953029775112141</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04045181602593184</v>
+        <v>0.04822112489182289</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,17 +892,24 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4061477860.828401</v>
+        <v>4042831726.569839</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07310246754637259</v>
+        <v>0.09631915961581003</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02829948471577358</v>
+        <v>0.03047017645048702</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>142</v>
+      </c>
+      <c r="J13" t="n">
+        <v>280</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,17 +927,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3303273212.755759</v>
+        <v>3328893502.065632</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1258796671297449</v>
+        <v>0.1364765335688395</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04083670189449114</v>
+        <v>0.04377834028977264</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>57</v>
+      </c>
+      <c r="J14" t="n">
+        <v>276</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1227313997.618126</v>
+        <v>1211289303.859622</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08953751960380879</v>
+        <v>0.1094440714506642</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04324308651435674</v>
+        <v>0.04203168887512353</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2852128888.422081</v>
+        <v>2756783052.283477</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07727201615102713</v>
+        <v>0.09921581294564556</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03460767363915927</v>
+        <v>0.04131194208745916</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3414972443.972558</v>
+        <v>5197615539.346573</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1129150993637204</v>
+        <v>0.1157684915265753</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04776831183732996</v>
+        <v>0.03418298962676901</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>134</v>
+      </c>
+      <c r="J17" t="n">
+        <v>279</v>
+      </c>
+      <c r="K17" t="n">
+        <v>85.68889910628877</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3902231583.505455</v>
+        <v>2662110253.984465</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1640814404787845</v>
+        <v>0.1146005013763589</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02737225914909207</v>
+        <v>0.02244062344085951</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>71</v>
+      </c>
+      <c r="J18" t="n">
+        <v>275</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>985230126.0611808</v>
+        <v>1038921706.975318</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1908213932467221</v>
+        <v>0.163594401425662</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0212565775927639</v>
+        <v>0.01956479787594522</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2266637360.71666</v>
+        <v>2075925532.758702</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1163914900840909</v>
+        <v>0.1506820795257654</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02097895333725653</v>
+        <v>0.0259541779346199</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2064456812.340029</v>
+        <v>1782461017.96017</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08370610895917559</v>
+        <v>0.06839512610834063</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04084604370838951</v>
+        <v>0.04351928850519041</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3573394297.038011</v>
+        <v>3229942731.746406</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1167513029991378</v>
+        <v>0.1438082848464986</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03577024873767008</v>
+        <v>0.04370583828471208</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>74</v>
+      </c>
+      <c r="J22" t="n">
+        <v>278</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1281993216.492879</v>
+        <v>989851635.2973739</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1736524325950584</v>
+        <v>0.1324851882467683</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05011406062103093</v>
+        <v>0.04073815694244701</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1273,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3402032393.375492</v>
+        <v>3946509131.177441</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1241079527517699</v>
+        <v>0.1073538162261253</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03440220009926231</v>
+        <v>0.02983012640784111</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>83</v>
+      </c>
+      <c r="J24" t="n">
+        <v>279</v>
+      </c>
+      <c r="K24" t="n">
+        <v>82.77049324695952</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1115717305.922492</v>
+        <v>913575173.0427406</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0993695296531471</v>
+        <v>0.0883738388792223</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02235464650005289</v>
+        <v>0.0243335280600245</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1021986788.2379</v>
+        <v>957755726.539256</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1101167324207528</v>
+        <v>0.1024354306408801</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0294152130039669</v>
+        <v>0.03430562660792719</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,16 +1386,25 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2863317352.98657</v>
+        <v>3621784856.413192</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1419070532503047</v>
+        <v>0.1514013389756945</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02693424474106047</v>
+        <v>0.02000318633506482</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>115</v>
+      </c>
+      <c r="J27" t="n">
+        <v>279</v>
+      </c>
+      <c r="K27" t="n">
+        <v>64.80674671065701</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1417,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3011191289.204609</v>
+        <v>2527340078.843325</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09207914639453978</v>
+        <v>0.1264420963366834</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04096381266739012</v>
+        <v>0.03554446548146766</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>57</v>
+      </c>
+      <c r="J28" t="n">
+        <v>277</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5784756363.468902</v>
+        <v>4085278596.755704</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1379549844559743</v>
+        <v>0.1353988650280745</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04082359136459337</v>
+        <v>0.04427830604392736</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>267</v>
+      </c>
+      <c r="J29" t="n">
+        <v>279</v>
+      </c>
+      <c r="K29" t="n">
+        <v>90.84680023129965</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1951614279.017747</v>
+        <v>1974761980.989086</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1241481478736521</v>
+        <v>0.123680765023486</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02666119075858244</v>
+        <v>0.0347852486239453</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1398195183.2605</v>
+        <v>1367095409.298008</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07841105356226671</v>
+        <v>0.09107963931909135</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03881427435227379</v>
+        <v>0.04063027766029172</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1565,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1207715559.757993</v>
+        <v>1343475071.951009</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07303025251931936</v>
+        <v>0.09585233278072468</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03573496585976006</v>
+        <v>0.03826812221351338</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2196389348.37569</v>
+        <v>2395423853.565847</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1748307026974001</v>
+        <v>0.2080926652778322</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04408690316282458</v>
+        <v>0.03809451889660627</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1140128418.802936</v>
+        <v>1076495883.419088</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09015980718993642</v>
+        <v>0.09949182155092207</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02556995969252354</v>
+        <v>0.01873708891100512</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>892822635.40295</v>
+        <v>1075610273.308797</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1170647462883957</v>
+        <v>0.08112358478389889</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0390307316938009</v>
+        <v>0.02895334165677646</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2731585341.781521</v>
+        <v>2249619544.944889</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1768044234234182</v>
+        <v>0.117244994728717</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0195319654822304</v>
+        <v>0.01752674697258372</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2005146118.308348</v>
+        <v>2017404568.541336</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1105855140435059</v>
+        <v>0.07393605282335143</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02787918000760582</v>
+        <v>0.02890204679353477</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1873217791.604714</v>
+        <v>1406830903.393006</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08549789014283463</v>
+        <v>0.09944253730804908</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02710841203291501</v>
+        <v>0.02677182636671214</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1481367364.919607</v>
+        <v>1610623596.048928</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1565934173502243</v>
+        <v>0.1430869069889221</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03302110459232088</v>
+        <v>0.02797813190561087</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1586556158.581861</v>
+        <v>1774443711.675389</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1004420318987429</v>
+        <v>0.1171458128967723</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05350144959481407</v>
+        <v>0.04731036181203153</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2856582815.416121</v>
+        <v>2564547494.688071</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1103889617078325</v>
+        <v>0.1585072269074167</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04561277489666793</v>
+        <v>0.03068514858675943</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1915,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3111942185.484653</v>
+        <v>3142381349.130322</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1155266583175822</v>
+        <v>0.08844096374107192</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0406907254253145</v>
+        <v>0.0421809787103361</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>117</v>
+      </c>
+      <c r="J42" t="n">
+        <v>277</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2420730241.980723</v>
+        <v>2014409357.208846</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1745999752255657</v>
+        <v>0.1331686749625673</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01616817846775411</v>
+        <v>0.02477746660049176</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1839100115.362503</v>
+        <v>2249780602.761349</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08312615241888045</v>
+        <v>0.06830960419563728</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03599740366945654</v>
+        <v>0.03664579492776047</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2020,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1654395827.581497</v>
+        <v>2332988871.663655</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1355790655366547</v>
+        <v>0.1482654320343923</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03688338439635396</v>
+        <v>0.04178181788003656</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5384069531.082845</v>
+        <v>4166917738.090299</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1457074672709905</v>
+        <v>0.1754381434391758</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05396780033264832</v>
+        <v>0.04580476097701763</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>164</v>
+      </c>
+      <c r="J46" t="n">
+        <v>280</v>
+      </c>
+      <c r="K46" t="n">
+        <v>93.15943651109484</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2086,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4586398830.918262</v>
+        <v>4088582739.577239</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1976166625888102</v>
+        <v>0.1964196097272734</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05387665296696853</v>
+        <v>0.04188565700072275</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>126</v>
+      </c>
+      <c r="J47" t="n">
+        <v>279</v>
+      </c>
+      <c r="K47" t="n">
+        <v>75.38626042769576</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2123,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3861674503.226218</v>
+        <v>3545870086.478819</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1020457780373079</v>
+        <v>0.08880732856476808</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02769768412297173</v>
+        <v>0.02686591788252713</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>139</v>
+      </c>
+      <c r="J48" t="n">
+        <v>280</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2164,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1900939948.279948</v>
+        <v>1780620764.117374</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1360029261729331</v>
+        <v>0.1830674919500937</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04131835022631706</v>
+        <v>0.03221781827809705</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2193,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2777998719.442141</v>
+        <v>3415771193.624758</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1200810022433991</v>
+        <v>0.14863854841625</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05353520730769609</v>
+        <v>0.0410064028861879</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>90</v>
+      </c>
+      <c r="J50" t="n">
+        <v>279</v>
+      </c>
+      <c r="K50" t="n">
+        <v>67.83149141858432</v>
       </c>
     </row>
     <row r="51">
@@ -1858,17 +2236,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1294529723.165679</v>
+        <v>983098194.901427</v>
       </c>
       <c r="F51" t="n">
-        <v>0.191011384967402</v>
+        <v>0.1679309188431259</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03967969270113561</v>
+        <v>0.04403902559666301</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2271,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3901989925.847535</v>
+        <v>4638106508.606349</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1147820955624765</v>
+        <v>0.1064979726142088</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05294246856557835</v>
+        <v>0.04593416789301415</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>176</v>
+      </c>
+      <c r="J52" t="n">
+        <v>279</v>
+      </c>
+      <c r="K52" t="n">
+        <v>88.22755554495821</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2302,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2523272120.632388</v>
+        <v>2319883108.4095</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1345686567326835</v>
+        <v>0.1677265513527543</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03158677287679279</v>
+        <v>0.02236446873867194</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>39</v>
+      </c>
+      <c r="J53" t="n">
+        <v>273</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2343,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4563411867.807818</v>
+        <v>3391068712.999299</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1283037371132829</v>
+        <v>0.1692156444141861</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03413601694175433</v>
+        <v>0.04080625542550615</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>148</v>
+      </c>
+      <c r="J54" t="n">
+        <v>279</v>
+      </c>
+      <c r="K54" t="n">
+        <v>62.40888070984101</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2374,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4871412332.302581</v>
+        <v>3687126460.148887</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2158209635837062</v>
+        <v>0.1793306458960779</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03095398663035532</v>
+        <v>0.02140086806641811</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>127</v>
+      </c>
+      <c r="J55" t="n">
+        <v>279</v>
+      </c>
+      <c r="K55" t="n">
+        <v>72.97198499365527</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2411,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1757547878.607393</v>
+        <v>1701954783.147995</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1048000255190189</v>
+        <v>0.1112497183240737</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03772093745343987</v>
+        <v>0.05302038910818096</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2446,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3598934254.708548</v>
+        <v>4090777549.784153</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1231740786805427</v>
+        <v>0.118068854600529</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01955068984863686</v>
+        <v>0.01825830701413519</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>113</v>
+      </c>
+      <c r="J57" t="n">
+        <v>280</v>
+      </c>
+      <c r="K57" t="n">
+        <v>91.50800992306112</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2489,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1228905813.590383</v>
+        <v>1385314434.513395</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1339729556425318</v>
+        <v>0.1991579068139173</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03044924964184932</v>
+        <v>0.03108067821691372</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2524,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3456095385.895216</v>
+        <v>3529732712.218473</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09986961626230877</v>
+        <v>0.09418416937774993</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03734688305425838</v>
+        <v>0.03417760517369551</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
       </c>
+      <c r="I59" t="n">
+        <v>135</v>
+      </c>
+      <c r="J59" t="n">
+        <v>278</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2553,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2606121359.872626</v>
+        <v>3748190089.693213</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1702342370908224</v>
+        <v>0.1873742620031403</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02317735473576424</v>
+        <v>0.03321503079430323</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>44</v>
+      </c>
+      <c r="J60" t="n">
+        <v>280</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2588,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2134284684.167828</v>
+        <v>3139659697.695638</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1221444414900026</v>
+        <v>0.1402112403376674</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02086627704172325</v>
+        <v>0.02683222252517862</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>8</v>
+      </c>
+      <c r="J61" t="n">
+        <v>259</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2623,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1324358680.446481</v>
+        <v>1591326838.311747</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1496847451121971</v>
+        <v>0.1760262868289807</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03087543102005174</v>
+        <v>0.04053253859414028</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2664,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3696501881.282516</v>
+        <v>4106038979.413595</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08785511809565084</v>
+        <v>0.09832336457578379</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04139464361261164</v>
+        <v>0.03613182692544482</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>136</v>
+      </c>
+      <c r="J63" t="n">
+        <v>279</v>
+      </c>
+      <c r="K63" t="n">
+        <v>86.43378498641879</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2695,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5210672677.687243</v>
+        <v>5471188358.659612</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1411104467553328</v>
+        <v>0.1362068348261188</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03313522757544579</v>
+        <v>0.02979605733468834</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>137</v>
+      </c>
+      <c r="J64" t="n">
+        <v>280</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2730,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4220994889.665363</v>
+        <v>3782050308.214405</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1055208785248626</v>
+        <v>0.111439884310757</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02840536356558152</v>
+        <v>0.03047989918333828</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>224</v>
+      </c>
+      <c r="J65" t="n">
+        <v>280</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,23 +2765,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4831022894.969598</v>
+        <v>5664236698.541614</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1358255124589338</v>
+        <v>0.1433564737758165</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04335675351352958</v>
+        <v>0.04903863940984835</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>138</v>
+      </c>
+      <c r="J66" t="n">
+        <v>280</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2504373621.470031</v>
+        <v>2491963553.814173</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08198362183390719</v>
+        <v>0.08530530767132719</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04844716033305835</v>
+        <v>0.04800871303188738</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>258</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2835,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3953649481.326437</v>
+        <v>4141564652.012979</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1002700975125394</v>
+        <v>0.1150169565707719</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03580360851155692</v>
+        <v>0.04609806873701285</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>145</v>
+      </c>
+      <c r="J68" t="n">
+        <v>280</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1927088645.349199</v>
+        <v>2155138784.312374</v>
       </c>
       <c r="F69" t="n">
-        <v>0.174967356350539</v>
+        <v>0.1555226811146337</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04887732618790694</v>
+        <v>0.03870833797426471</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2911,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2827003556.897555</v>
+        <v>3684940024.024179</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1008435754695105</v>
+        <v>0.09978706395589912</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03946802465513671</v>
+        <v>0.03866660128783787</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>40</v>
+      </c>
+      <c r="J70" t="n">
+        <v>280</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2940,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4239936620.23735</v>
+        <v>4787464486.214377</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1825604828785233</v>
+        <v>0.1456998160117843</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02435989505359818</v>
+        <v>0.0273843038702813</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>210</v>
+      </c>
+      <c r="J71" t="n">
+        <v>280</v>
+      </c>
+      <c r="K71" t="n">
+        <v>93.7625121056715</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1554026031.923792</v>
+        <v>1783866468.258857</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09290141167193658</v>
+        <v>0.08853936943653462</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04570164481341764</v>
+        <v>0.04731469917126276</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2346089427.580666</v>
+        <v>3448881751.432935</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1086965060037138</v>
+        <v>0.09727958278433645</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04487808275965714</v>
+        <v>0.03517402391850186</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>18</v>
+      </c>
+      <c r="J73" t="n">
+        <v>275</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3816974759.842996</v>
+        <v>3543718885.739476</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1349810749721622</v>
+        <v>0.1246743127527564</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0245276600749065</v>
+        <v>0.03230882621288781</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>76</v>
+      </c>
+      <c r="J74" t="n">
+        <v>268</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1545975989.648577</v>
+        <v>1936948835.482074</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1301795285103665</v>
+        <v>0.1253737998497865</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02430508464353922</v>
+        <v>0.02375686261497616</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3117,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3901497214.914752</v>
+        <v>4833798919.860501</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1130771238256317</v>
+        <v>0.09049207027335912</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02131329947441296</v>
+        <v>0.02911407592640555</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>131</v>
+      </c>
+      <c r="J76" t="n">
+        <v>280</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1738818663.52058</v>
+        <v>1585590287.145809</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1306029676786341</v>
+        <v>0.1674638588248973</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02429838010075649</v>
+        <v>0.02890597291696474</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3187,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3468440942.980607</v>
+        <v>4342195368.026344</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09003592486568585</v>
+        <v>0.09192689148738074</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04289331561517412</v>
+        <v>0.04209784739243207</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>140</v>
+      </c>
+      <c r="J78" t="n">
+        <v>280</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1640478132.580939</v>
+        <v>1666670116.795192</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1196044838313024</v>
+        <v>0.1329835617576477</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02895259869566033</v>
+        <v>0.02803137993537962</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3263,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4064428583.462951</v>
+        <v>4547947420.952208</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0775815210186952</v>
+        <v>0.09604120607795126</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02928006045409367</v>
+        <v>0.02686608641361047</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>137</v>
+      </c>
+      <c r="J80" t="n">
+        <v>279</v>
+      </c>
+      <c r="K80" t="n">
+        <v>67.48735667445709</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3348432923.171765</v>
+        <v>4553612634.628027</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1169042048069074</v>
+        <v>0.1015239431400317</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02435427880717033</v>
+        <v>0.02706042691784398</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>128</v>
+      </c>
+      <c r="J81" t="n">
+        <v>280</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4432163940.609169</v>
+        <v>3472130654.985856</v>
       </c>
       <c r="F82" t="n">
-        <v>0.145529794037011</v>
+        <v>0.2174953069250947</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02553131624220349</v>
+        <v>0.02907438547532526</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>208</v>
+      </c>
+      <c r="J82" t="n">
+        <v>279</v>
+      </c>
+      <c r="K82" t="n">
+        <v>65.67843386065061</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1579052278.613125</v>
+        <v>1872715111.443602</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1116309860992042</v>
+        <v>0.1254423256294424</v>
       </c>
       <c r="G83" t="n">
-        <v>0.028784740827085</v>
+        <v>0.03023500372589512</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1608381303.55016</v>
+        <v>2271467027.094458</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09132349366986102</v>
+        <v>0.118546103685489</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03658597747755785</v>
+        <v>0.03858868584109313</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2321748838.977757</v>
+        <v>2813924535.180609</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1652060311447296</v>
+        <v>0.1557364380264996</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03542633243723238</v>
+        <v>0.0495611570789562</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>38</v>
+      </c>
+      <c r="J85" t="n">
+        <v>273</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3477,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2797447648.032125</v>
+        <v>2498190223.123545</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1441094351824157</v>
+        <v>0.1218235526723368</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01911436931321657</v>
+        <v>0.02213070873810922</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1469196205.577641</v>
+        <v>1142964501.988755</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1534910237154822</v>
+        <v>0.1848388379286523</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03640408791223938</v>
+        <v>0.03195419298699005</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3547,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3487495297.629514</v>
+        <v>3549762724.834634</v>
       </c>
       <c r="F88" t="n">
-        <v>0.165522580918503</v>
+        <v>0.1781025626516938</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0393814676498614</v>
+        <v>0.02930908540713905</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>39</v>
+      </c>
+      <c r="J88" t="n">
+        <v>280</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2735498258.688255</v>
+        <v>2794594027.593317</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1443172443177435</v>
+        <v>0.1248976327913622</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0400407354912144</v>
+        <v>0.0263942750156349</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>21</v>
+      </c>
+      <c r="J89" t="n">
+        <v>271</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3617,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1805632861.020795</v>
+        <v>1356690261.638844</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09890806456724473</v>
+        <v>0.1220976222804347</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03593920466396899</v>
+        <v>0.05086550281653464</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3652,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1774169702.194198</v>
+        <v>1704125440.179262</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1911613379840556</v>
+        <v>0.1734107656973494</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04586858401030407</v>
+        <v>0.06123458094285755</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2142953984.186419</v>
+        <v>2653089805.454722</v>
       </c>
       <c r="F92" t="n">
-        <v>0.080458801519005</v>
+        <v>0.07346974477863327</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02915207174607387</v>
+        <v>0.02946611079554937</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4763118800.989153</v>
+        <v>3370031267.762566</v>
       </c>
       <c r="F93" t="n">
-        <v>0.111365458875389</v>
+        <v>0.1103839643617861</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03990029158362089</v>
+        <v>0.03781415076507084</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>122</v>
+      </c>
+      <c r="J93" t="n">
+        <v>279</v>
+      </c>
+      <c r="K93" t="n">
+        <v>60.71485908568201</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2467924464.536747</v>
+        <v>2323510848.701202</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1581990280363656</v>
+        <v>0.1534648529322559</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03887609619705005</v>
+        <v>0.03943346851237529</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2448706867.751282</v>
+        <v>2845547829.457214</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09135453746392157</v>
+        <v>0.1191268429075991</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0325474595640821</v>
+        <v>0.03634512313454493</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1471269713.759975</v>
+        <v>1645519511.020392</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09040105705657114</v>
+        <v>0.1286563010915454</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04076766919488219</v>
+        <v>0.03858727814039224</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4473889856.545071</v>
+        <v>5196809764.428243</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1558484456466674</v>
+        <v>0.1620953302283966</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02636685107129625</v>
+        <v>0.01816856519080651</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>139</v>
+      </c>
+      <c r="J97" t="n">
+        <v>280</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3803922474.358731</v>
+        <v>2681346216.765865</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1300763661434857</v>
+        <v>0.1070968083707713</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02760526352529293</v>
+        <v>0.03010991294080061</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>67</v>
+      </c>
+      <c r="J98" t="n">
+        <v>278</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2116480246.030359</v>
+        <v>2176882657.44865</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1194610577980656</v>
+        <v>0.1204046502452818</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03161797312768821</v>
+        <v>0.02858360627181558</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3509363761.060905</v>
+        <v>4108623876.20722</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1622568191196478</v>
+        <v>0.1397292713338646</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0257008580515479</v>
+        <v>0.01985365296908764</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>119</v>
+      </c>
+      <c r="J100" t="n">
+        <v>280</v>
+      </c>
+      <c r="K100" t="n">
+        <v>92.40787854399522</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2178338302.063837</v>
+        <v>3575501255.312317</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1754094049179641</v>
+        <v>0.1531784484497029</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0388773909099053</v>
+        <v>0.03590975614598996</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>24</v>
+      </c>
+      <c r="J101" t="n">
+        <v>280</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
